--- a/output/ValueSet-2.16.840.1.114222.4.11.1066.xlsx
+++ b/output/ValueSet-2.16.840.1.114222.4.11.1066.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-attestation/ValueSet/Healthcare-Provider-Taxonomy</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-attestation/ValueSet/HealthcareProviderTaxonomy</t>
   </si>
   <si>
     <t>Version</t>
